--- a/nuaxess/assets/George_Snow_Enrollment.xlsx
+++ b/nuaxess/assets/George_Snow_Enrollment.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\nuaxess\nuaxess-nuaxess\src\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D7E4E6E-8EC4-48CB-99E0-B841B402DF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EC0D519-CC51-468F-B630-61989B0D4069}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{5E9A7D9B-66FD-4BE6-8653-78DE66501928}"/>
   </bookViews>
@@ -156,7 +156,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="127">
   <si>
     <t>Company Name:</t>
   </si>
@@ -363,9 +363,6 @@
 EE = Employee ONLY            ES = Empoyee+Spouse        EC = Employee+Child(ren)      F = Family</t>
   </si>
   <si>
-    <t xml:space="preserve">Ramse Notes </t>
-  </si>
-  <si>
     <t xml:space="preserve">George Snow </t>
   </si>
   <si>
@@ -402,9 +399,6 @@
     <t>A</t>
   </si>
   <si>
-    <t xml:space="preserve">VBP 18 </t>
-  </si>
-  <si>
     <t>EE</t>
   </si>
   <si>
@@ -432,9 +426,6 @@
     <t>401-499-0980</t>
   </si>
   <si>
-    <t xml:space="preserve">VBP 10 </t>
-  </si>
-  <si>
     <t>Cole</t>
   </si>
   <si>
@@ -550,6 +541,15 @@
   </si>
   <si>
     <t>Name of Vision Plan (Blank or VSP)</t>
+  </si>
+  <si>
+    <t>Fields below are required before enrollment is processed!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB18 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">VB10 </t>
   </si>
 </sst>
 </file>
@@ -561,9 +561,9 @@
     <numFmt numFmtId="165" formatCode="000\-00\-0000"/>
     <numFmt numFmtId="166" formatCode="00000"/>
     <numFmt numFmtId="167" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-    <numFmt numFmtId="173" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="168" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,6 +626,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="6">
@@ -757,7 +765,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -854,11 +862,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1177,7 +1186,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,16 +1223,16 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B3" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>123</v>
-      </c>
       <c r="D3" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1231,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>11</v>
@@ -1243,13 +1252,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -1257,13 +1266,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -1287,7 +1296,7 @@
         <v>12</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -1295,6 +1304,9 @@
         <v>5</v>
       </c>
       <c r="B9" s="1"/>
+      <c r="D9" s="43" t="s">
+        <v>124</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
@@ -1302,7 +1314,7 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D10" s="2"/>
     </row>
@@ -1321,13 +1333,13 @@
         <v>13</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1349,7 +1361,7 @@
         <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1357,7 +1369,7 @@
         <v>17</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G15" s="2"/>
     </row>
@@ -1366,7 +1378,7 @@
         <v>18</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>10</v>
@@ -1380,7 +1392,7 @@
         <v>19</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1388,7 +1400,7 @@
         <v>20</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>30</v>
@@ -1459,7 +1471,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2064DD01-6299-4741-87BA-053A955A0896}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1501,10 +1515,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="11">
         <v>863.03</v>
@@ -1521,10 +1535,10 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="11">
         <v>719.19</v>
@@ -1541,10 +1555,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C5" s="11">
         <v>647.27</v>
@@ -1561,10 +1575,10 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C6" s="11">
         <v>603</v>
@@ -1581,10 +1595,10 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C7" s="11">
         <v>536.1</v>
@@ -1601,10 +1615,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C8" s="11">
         <v>38.75</v>
@@ -1621,10 +1635,10 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="11">
         <v>6.82</v>
@@ -1648,8 +1662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4C85CB8-62C7-40D3-B037-8DECD1FD060D}">
   <dimension ref="A1:AB616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1763,13 +1777,13 @@
         <v>63</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="Z2" s="18" t="s">
         <v>63</v>
       </c>
       <c r="AA2" s="39" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="AB2" s="18" t="s">
         <v>63</v>
@@ -1783,10 +1797,10 @@
     </row>
     <row r="4" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B4" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="B4" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="C4" s="42">
         <v>44593</v>
@@ -1796,14 +1810,14 @@
       </c>
       <c r="E4" s="26"/>
       <c r="F4" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="G4" s="27" t="s">
         <v>67</v>
-      </c>
-      <c r="G4" s="27" t="s">
-        <v>68</v>
       </c>
       <c r="H4" s="28"/>
       <c r="I4" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J4" s="29">
         <v>27824</v>
@@ -1812,49 +1826,49 @@
         <v>26</v>
       </c>
       <c r="L4" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" s="28" t="s">
         <v>70</v>
-      </c>
-      <c r="M4" s="28" t="s">
-        <v>71</v>
       </c>
       <c r="N4" s="28"/>
       <c r="O4" s="28" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" s="28" t="s">
         <v>72</v>
-      </c>
-      <c r="P4" s="28" t="s">
-        <v>73</v>
       </c>
       <c r="Q4" s="30">
         <v>33467</v>
       </c>
       <c r="R4" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="S4" s="32" t="s">
         <v>74</v>
-      </c>
-      <c r="S4" s="32" t="s">
-        <v>75</v>
       </c>
       <c r="T4" s="29">
         <v>44315</v>
       </c>
       <c r="U4" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V4" s="29">
         <v>44593</v>
       </c>
       <c r="W4" s="28" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="X4" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="C5" s="42">
         <v>44593</v>
@@ -1864,14 +1878,14 @@
       </c>
       <c r="E5" s="26"/>
       <c r="F5" s="27" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G5" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="H5" s="28"/>
       <c r="I5" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J5" s="29">
         <v>33805</v>
@@ -1880,51 +1894,51 @@
         <v>26</v>
       </c>
       <c r="L5" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="N5" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="M5" s="28" t="s">
+      <c r="O5" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="N5" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="O5" s="28" t="s">
-        <v>84</v>
-      </c>
       <c r="P5" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="30">
         <v>33483</v>
       </c>
       <c r="R5" s="31" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="S5" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="T5" s="29">
         <v>44522</v>
       </c>
       <c r="U5" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V5" s="29">
         <v>44593</v>
       </c>
       <c r="W5" s="28" t="s">
-        <v>87</v>
+        <v>126</v>
       </c>
       <c r="X5" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="C6" s="42">
         <v>44593</v>
@@ -1934,14 +1948,14 @@
       </c>
       <c r="E6" s="26"/>
       <c r="F6" s="27" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G6" s="27" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H6" s="28"/>
       <c r="I6" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J6" s="29">
         <v>22806</v>
@@ -1950,49 +1964,49 @@
         <v>26</v>
       </c>
       <c r="L6" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M6" s="28" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="N6" s="28"/>
       <c r="O6" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="P6" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q6" s="30">
         <v>33446</v>
       </c>
       <c r="R6" s="31" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="S6" s="32" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="T6" s="29">
         <v>43971</v>
       </c>
       <c r="U6" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V6" s="29">
         <v>44593</v>
       </c>
       <c r="W6" s="28" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="X6" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="24" t="s">
         <v>65</v>
-      </c>
-      <c r="B7" s="24" t="s">
-        <v>66</v>
       </c>
       <c r="C7" s="42">
         <v>44593</v>
@@ -2002,14 +2016,14 @@
       </c>
       <c r="E7" s="26"/>
       <c r="F7" s="27" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G7" s="27" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H7" s="28"/>
       <c r="I7" s="28" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="29">
         <v>35102</v>
@@ -2018,43 +2032,43 @@
         <v>26</v>
       </c>
       <c r="L7" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="M7" s="28" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="N7" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="O7" s="28" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="P7" s="28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q7" s="30">
         <v>33435</v>
       </c>
       <c r="R7" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="S7" s="32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="T7" s="29">
         <v>43250</v>
       </c>
       <c r="U7" s="28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V7" s="29">
         <v>44593</v>
       </c>
       <c r="W7" s="28" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="X7" s="28" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
@@ -4495,10 +4509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C30E08A1-C17D-499A-9103-46CCFE0AC226}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4523,9 +4537,13 @@
     <col min="22" max="22" width="17.42578125" customWidth="1"/>
     <col min="23" max="23" width="13.28515625" customWidth="1"/>
     <col min="24" max="24" width="14.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.140625" customWidth="1"/>
+    <col min="26" max="26" width="18" customWidth="1"/>
+    <col min="27" max="27" width="19.85546875" customWidth="1"/>
+    <col min="28" max="28" width="19.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -4540,7 +4558,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -4614,16 +4632,25 @@
         <v>63</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="22" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="22" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="W3" s="23"/>
     </row>
-    <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="34"/>
@@ -4649,7 +4676,7 @@
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
     </row>
-    <row r="5" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -4675,7 +4702,7 @@
       <c r="W5" s="28"/>
       <c r="X5" s="28"/>
     </row>
-    <row r="6" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -4701,7 +4728,7 @@
       <c r="W6" s="28"/>
       <c r="X6" s="28"/>
     </row>
-    <row r="7" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
@@ -4741,10 +4768,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E065239F-BF46-4675-BAEE-5C961AE69F5F}">
-  <dimension ref="A1:Y7"/>
+  <dimension ref="A1:AB7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="Y2" sqref="Y2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4763,9 +4790,14 @@
     <col min="18" max="18" width="36.42578125" customWidth="1"/>
     <col min="19" max="19" width="18.85546875" customWidth="1"/>
     <col min="20" max="20" width="19.42578125" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" customWidth="1"/>
+    <col min="25" max="25" width="14.7109375" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="15.5703125" customWidth="1"/>
+    <col min="28" max="28" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:28" ht="32.25" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>38</v>
       </c>
@@ -4780,7 +4812,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:25" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" ht="117" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
         <v>45</v>
       </c>
@@ -4854,16 +4886,25 @@
         <v>63</v>
       </c>
       <c r="Y2" s="19" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" s="22" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="Z2" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA2" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB2" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:28" s="22" customFormat="1" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
       <c r="C3" s="21"/>
       <c r="W3" s="23"/>
     </row>
-    <row r="4" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="34"/>
@@ -4889,7 +4930,7 @@
       <c r="W4" s="28"/>
       <c r="X4" s="28"/>
     </row>
-    <row r="5" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="24"/>
       <c r="B5" s="24"/>
       <c r="C5" s="25"/>
@@ -4915,7 +4956,7 @@
       <c r="W5" s="28"/>
       <c r="X5" s="28"/>
     </row>
-    <row r="6" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="24"/>
       <c r="B6" s="24"/>
       <c r="C6" s="25"/>
@@ -4941,7 +4982,7 @@
       <c r="W6" s="28"/>
       <c r="X6" s="28"/>
     </row>
-    <row r="7" spans="1:25" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:28" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="25"/>
